--- a/xlsx/权力_intext.xlsx
+++ b/xlsx/权力_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>权力</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>政策_政策_政治_权力</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>國際政治學</t>
+    <t>国际政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5</t>
@@ -53,25 +53,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%BF%B0%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>論述研究</t>
+    <t>论述研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
+    <t>政治哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1</t>
   </si>
   <si>
-    <t>惡</t>
+    <t>恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9B%E9%87%8F</t>
@@ -101,19 +101,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>馬基維利</t>
+    <t>马基维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%B8%83%E6%96%AF</t>
@@ -131,43 +131,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E9%9D%9E</t>
   </si>
   <si>
-    <t>韓非</t>
+    <t>韩非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%95%B6%E6%80%A7</t>
   </si>
   <si>
-    <t>正當性</t>
+    <t>正当性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%96%E8%AA%9E</t>
   </si>
   <si>
-    <t>論語</t>
+    <t>论语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%88%86%E6%9E%90</t>
@@ -179,19 +179,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B6%E6%AC%8A</t>
   </si>
   <si>
-    <t>父權</t>
+    <t>父权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E9%9C%B8%E6%AC%8A</t>
   </si>
   <si>
-    <t>文化霸權</t>
+    <t>文化霸权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%B3%95%E6%80%A7</t>
@@ -203,49 +203,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
+    <t>国际组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%B4%84</t>
   </si>
   <si>
-    <t>北約</t>
+    <t>北约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E7%9B%9F</t>
   </si>
   <si>
-    <t>東盟</t>
+    <t>东盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐盟</t>
+    <t>欧盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>大英國協</t>
+    <t>大英国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%9C%8B%E5%8D%94</t>
   </si>
   <si>
-    <t>獨立國協</t>
+    <t>独立国协</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BE%93%E5%87%BA%E5%9B%BD%E5%AE%B6%E7%BB%84%E7%BB%87</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E6%B2%99%E5%85%AC%E7%B4%84</t>
   </si>
   <si>
-    <t>華沙公約</t>
+    <t>华沙公约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IBM</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9F%B3%E6%B2%B9%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國石油公司</t>
+    <t>英国石油公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/AT%26T</t>
@@ -305,31 +305,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E5%9C%8B%E7%95%8C%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>無國界記者</t>
+    <t>无国界记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>綠色和平</t>
+    <t>绿色和平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>恐怖主義</t>
+    <t>恐怖主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3%E8%8F%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>時代華納</t>
+    <t>时代华纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CNN</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
+    <t>纽约时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%BB%A3%E6%92%AD%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>英國廣播公司</t>
+    <t>英国广播公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%BB%B7</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -383,37 +383,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%AF%E8%B1%90</t>
   </si>
   <si>
-    <t>匯豐</t>
+    <t>汇丰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>階級</t>
+    <t>阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%9B%8A%E5%9C%98%E9%AB%94</t>
   </si>
   <si>
-    <t>利益團體</t>
+    <t>利益团体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%87%91%E8%9E%8D%E9%A2%A8%E6%9A%B4</t>
   </si>
   <si>
-    <t>亞洲金融風暴</t>
+    <t>亚洲金融风暴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E9%92%B1</t>
@@ -425,37 +425,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E6%B2%96%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>對沖基金</t>
+    <t>对冲基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94</t>
   </si>
   <si>
-    <t>蓋達</t>
+    <t>盖达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9C%8B</t>
   </si>
   <si>
-    <t>大國</t>
+    <t>大国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%B3%95%E8%AB%96</t>
   </si>
   <si>
-    <t>方法論</t>
+    <t>方法论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%AB%94%E8%AB%96</t>
   </si>
   <si>
-    <t>本體論</t>
+    <t>本体论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC</t>
@@ -479,9 +479,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7</t>
   </si>
   <si>
-    <t>阶级</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E5%B1%82</t>
   </si>
   <si>
@@ -491,9 +488,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%85%9A</t>
   </si>
   <si>
-    <t>政党</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9B%A2</t>
   </si>
   <si>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>政治權力</t>
+    <t>政治权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
@@ -521,31 +515,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>貨幣</t>
+    <t>货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
+    <t>哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>存在主義</t>
+    <t>存在主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%9E%8B%E6%85%8B</t>
   </si>
   <si>
-    <t>意識型態</t>
+    <t>意识型态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -557,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄國</t>
+    <t>俄国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99</t>
@@ -569,19 +563,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E7%8F%BE%E5%AF%A6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構現實主義</t>
+    <t>结构现实主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E5%AD%90</t>
@@ -593,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
   </si>
   <si>
-    <t>毛澤東</t>
+    <t>毛泽东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%99%90%E6%88%B0</t>
   </si>
   <si>
-    <t>超限戰</t>
+    <t>超限战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -617,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -647,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%B9%B3%E8%A1%A1</t>
   </si>
   <si>
-    <t>權力平衡</t>
+    <t>权力平衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E5%8B%A2</t>
   </si>
   <si>
-    <t>均勢</t>
+    <t>均势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%A8%81</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
@@ -3261,7 +3255,7 @@
         <v>153</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3287,10 +3281,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3316,10 +3310,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3345,10 +3339,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3374,10 +3368,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3403,10 +3397,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3432,10 +3426,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3461,10 +3455,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3490,10 +3484,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3519,10 +3513,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>4</v>
@@ -3548,10 +3542,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3577,10 +3571,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -3606,10 +3600,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3635,10 +3629,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -3664,10 +3658,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3693,10 +3687,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3722,10 +3716,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -3751,10 +3745,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3780,10 +3774,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -3809,10 +3803,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -3838,10 +3832,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3867,10 +3861,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3896,10 +3890,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3925,10 +3919,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3954,10 +3948,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3983,10 +3977,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>6</v>
@@ -4012,10 +4006,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4041,10 +4035,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4070,10 +4064,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>4</v>
@@ -4099,10 +4093,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4128,10 +4122,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4157,10 +4151,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4186,10 +4180,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4215,10 +4209,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4244,10 +4238,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>7</v>
@@ -4273,10 +4267,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>219</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>223</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
